--- a/techniqo/data_new_ticker/CSBBANK.xlsx
+++ b/techniqo/data_new_ticker/CSBBANK.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7321,6 +7321,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>229.15</v>
+      </c>
+      <c r="C198" t="n">
+        <v>232.95</v>
+      </c>
+      <c r="D198" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="E198" t="n">
+        <v>225.45</v>
+      </c>
+      <c r="F198" t="n">
+        <v>104571</v>
+      </c>
+      <c r="G198" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>227</v>
+      </c>
+      <c r="C199" t="n">
+        <v>230</v>
+      </c>
+      <c r="D199" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E199" t="n">
+        <v>226.85</v>
+      </c>
+      <c r="F199" t="n">
+        <v>78771</v>
+      </c>
+      <c r="G199" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/CSBBANK.xlsx
+++ b/techniqo/data_new_ticker/CSBBANK.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7371,6 +7371,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>226.85</v>
+      </c>
+      <c r="C200" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="D200" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>273652</v>
+      </c>
+      <c r="G200" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>225.85</v>
+      </c>
+      <c r="C201" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="D201" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>79499</v>
+      </c>
+      <c r="G201" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
